--- a/processed_CI_test_data/pivots_CI_test_reloop_57-40_30.xlsx
+++ b/processed_CI_test_data/pivots_CI_test_reloop_57-40_30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwieczorek\PycharmProjects\volatility_trend\processed_CI_test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B81A0885-BDE9-430A-BC27-D8E119FD14E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AE2F96-1D01-4658-A9E5-6372DCD4E393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-17592" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="96" windowWidth="26016" windowHeight="16152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivots" sheetId="1" r:id="rId1"/>
@@ -122,12 +122,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -142,10 +148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,38 +551,38 @@
         <v>0.1217027931935513</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>181</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>22.019464720194652</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>9.0714285714289193</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>8.8148069621296141</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>-22.840481938771561</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>-65373707.409999996</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>59.804444933092228</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>2862185.99</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>23.09382731668196</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>4.3781913301159693E-2</v>
       </c>
     </row>
@@ -649,38 +656,38 @@
         <v>0.38528104727512602</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>106</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>12.89537712895377</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>8.0769230769243716</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>8.4767433213602867</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>-5.0588099796714179</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>-6931152.7000000002</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>6.3406797073680536</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>1370115.25</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>11.05490876483975</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>0.19767494806455499</v>
       </c>
     </row>
@@ -796,38 +803,38 @@
         <v>0.29374803230759011</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>147</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>17.883211678832119</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>11.675675675674571</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>12.502079083773101</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>-42.241191870449143</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>-55526688.357409902</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>57.478618249093131</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <v>1314515.19</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>17.516560003775371</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <v>2.367357443575295E-2</v>
       </c>
     </row>
@@ -901,38 +908,38 @@
         <v>0.46453731913244251</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>44</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>5.3527980535279802</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>10.000000000000069</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>15.198763984905479</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>-46.211167285134081</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>-18827005.343107998</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>19.48883113512262</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>407412.46</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>5.4289709667605557</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <v>2.163979095853083E-2</v>
       </c>
     </row>
@@ -1048,38 +1055,38 @@
         <v>8.6202265230756719E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>199</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>24.20924574209246</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>13.24489795918363</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>10.136023973315289</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>-32.879729547070937</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>-28552888</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>65.16561724118327</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <v>868403.98</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <v>35.021702628649848</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="3">
         <v>3.041387547207134E-2</v>
       </c>
     </row>
@@ -1153,38 +1160,38 @@
         <v>0.35549986240306719</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>89</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>10.827250608272511</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>14.545454545454181</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>10.73222336025197</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>-12.019162170903691</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>-2169075</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>4.9504313265060818</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <v>180468.07</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <v>7.2780632367741616</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <v>8.3200474856793799E-2</v>
       </c>
     </row>
@@ -1300,38 +1307,38 @@
         <v>2.3269212309576778E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>168</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>20.588235294117641</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>21.920000000002801</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>31.18100326786578</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>-87.140134321414479</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>-246355384.75</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <v>62.234703700087557</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="3">
         <v>2827117.34</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>21.719153747769411</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="3">
         <v>1.1475768402094969E-2</v>
       </c>
     </row>
@@ -1405,38 +1412,38 @@
         <v>5.5014193535812293E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>119</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>14.58333333333333</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>21.76470588235588</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>29.196658909646558</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>-2.2044523263598168</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <v>-4414321.9399999985</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="3">
         <v>1.115153290647509</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="3">
         <v>2002457.43</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="3">
         <v>15.383755099296019</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="3">
         <v>0.45362741032884429</v>
       </c>
     </row>
